--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="61.2" customWidth="1" min="2" max="2"/>
+    <col width="32.4" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -462,12 +462,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08/04/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19:09:56</t>
+          <t>23:29:02</t>
         </is>
       </c>
     </row>
@@ -484,12 +484,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>09:47:57</t>
+          <t>23:39:08</t>
         </is>
       </c>
     </row>
@@ -501,17 +501,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>LOG-IN</t>
+          <t>Added item barcode no: 1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10:10:20</t>
+          <t>23:39:38</t>
         </is>
       </c>
     </row>
@@ -528,12 +528,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10:11:08</t>
+          <t>23:41:58</t>
         </is>
       </c>
     </row>
@@ -545,17 +545,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>LOG-IN</t>
+          <t>Added item barcode no: 1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>10:13:21</t>
+          <t>23:42:46</t>
         </is>
       </c>
     </row>
@@ -572,12 +572,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10:14:01</t>
+          <t>23:43:32</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>10:20:36</t>
+          <t>23:47:13</t>
         </is>
       </c>
     </row>
@@ -616,19 +616,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10:22:00</t>
+          <t>23:51:14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -638,19 +638,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10:23:29</t>
+          <t>23:54:59</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -660,19 +660,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>10:31:11</t>
+          <t>23:56:01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -682,41 +682,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>10:32:47</t>
+          <t>23:57:13</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Added item barcode no: 123</t>
+          <t>LOG-IN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/06/24</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>10:33:27</t>
+          <t>23:58:59</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -726,19 +726,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10:36:36</t>
+          <t>00:00:27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -748,41 +748,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>10:38:02</t>
+          <t>00:01:45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LOG-OUT</t>
+          <t>LOG-IN</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>10:38:37</t>
+          <t>00:02:51</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -792,41 +792,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10:38:41</t>
+          <t>00:05:19</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>LOG-IN</t>
+          <t xml:space="preserve">
+Added item barcode no: 2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>10:48:15</t>
+          <t>00:05:46</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -836,628 +837,34 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11:00:14</t>
+          <t>00:07:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>aum</t>
+          <t>q</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Added item barcode no: 912345671</t>
+          <t>LOG-IN</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08/05/23</t>
+          <t>02/07/24</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11:08:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345672</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>11:13:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345673</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>11:16:44</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345674</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>11:21:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345675</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>11:24:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345676</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>11:27:35</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Item checked out to FSL barcode no:912345675</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>11:28:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Item checked in from FSL barcode no:912345675</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>11:29:53</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>LOG-OUT</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>11:31:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>11:31:49</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 912345677</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>11:49:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Item checked out to FSL barcode no:912345677</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>11:53:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Item checked in from FSL barcode no:912345677</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>11:56:33</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>12:00:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 90123456789</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>12:05:56</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Item checked out to FSL barcode no:90123456789</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>12:07:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Item checked in from FSL barcode no:90123456789</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>12:09:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>12:11:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Item checked out to Court barcode no:90123456789</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>12:12:36</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Item checked in from Court barcode no:90123456789</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>12:13:40</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>LOG-OUT</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>12:25:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>12:44:59</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>aum</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Added item barcode no: 123</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>12:46:31</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>08/05/23</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>21:31:38</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>08/16/23</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>12:25:29</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>02/06/24</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>13:09:43</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>02/06/24</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>13:16:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>q</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>LOG-IN</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>02/06/24</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>13:21:10</t>
+          <t>00:08:12</t>
         </is>
       </c>
     </row>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,28 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10:13:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,6 +868,28 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10:05:32</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,7 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" customWidth="1" min="1" max="1"/>
-    <col width="32.4" customWidth="1" min="2" max="2"/>
+    <col width="52.8" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
@@ -890,6 +890,777 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>13:42:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13:43:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>13:43:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13:43:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13:55:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:56:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>20:01:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>20:02:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>20:03:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>20:04:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20:05:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>20:10:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20:17:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>20:18:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no:2</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20:19:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no:2</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>20:30:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>20:50:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>20:51:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>20:53:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>20:55:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>20:56:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Item checked out to Court barcode no:2</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>20:56:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>21:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>21:51:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Added item barcode no: 1003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21:54:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no:1003</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no:1003</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>21:55:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Item checked out to Court barcode no:1003</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>21:56:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>22:04:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>22:04:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Item checked in from Court barcode no:1003</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>22:07:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>22:08:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>22:08:16</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1661,6 +1661,28 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>22:24:15</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1683,6 +1683,1744 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>23:57:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>23:58:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>23:58:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>23:58:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>23:59:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>02/07/24</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>23:59:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>00:00:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>00:00:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>00:00:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>00:01:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>00:02:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>00:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>00:06:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>00:07:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>00:07:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>00:09:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>00:09:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>00:10:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>00:11:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>00:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>00:13:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>00:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>00:14:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>00:15:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>00:17:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>00:17:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>00:20:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>00:20:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>00:21:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>00:22:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>00:23:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>00:25:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>00:28:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>00:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>00:30:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>00:35:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>00:35:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>00:36:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>00:37:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>00:37:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>00:38:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>00:39:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>00:40:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>00:41:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>00:41:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>00:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>00:43:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>00:45:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>00:46:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>00:46:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>00:47:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>00:47:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>00:51:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>00:53:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>00:54:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>00:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>00:57:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>00:59:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>01:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>01:02:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>01:03:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>01:04:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>01:06:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>01:09:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>01:10:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>01:10:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>01:11:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>01:13:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>01:13:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>01:16:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>01:16:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>01:18:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>01:20:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>01:22:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>01:23:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>01:24:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>01:26:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>01:29:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>01:31:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D136"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3421,6 +3421,336 @@
         </is>
       </c>
     </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>09:41:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>09:42:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>09:52:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>09:52:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>09:54:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>02/08/24</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>09:55:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>09:26:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>09:27:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>09:28:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>09:29:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>09:29:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>09:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>09:33:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>09:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>09:37:24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3751,6 +3751,292 @@
         </is>
       </c>
     </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>09:40:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>09:41:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>09:42:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>09:48:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>09:55:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>09:57:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>09:58:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>10:00:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>10:09:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>10:17:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>10:19:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>10:28:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>10:29:17</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,6 +4037,336 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>10:30:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>10:34:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>10:35:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>10:36:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>10:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>10:44:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>10:44:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>10:54:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>10:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>10:55:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>10:56:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>10:57:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>10:59:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>11:01:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>11:03:23</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4367,6 +4367,50 @@
         </is>
       </c>
     </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>11:06:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>11:06:47</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4411,6 +4411,314 @@
         </is>
       </c>
     </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>11:08:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>11:09:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>11:11:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>11:13:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>11:14:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>11:14:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>11:14:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>11:15:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>11:21:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>11:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>11:26:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>11:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>11:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>11:28:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D164"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4037,6 +4037,380 @@
         </is>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>10:34:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>10:36:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>10:44:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>10:51:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>10:52:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>10:58:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>10:59:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>11:05:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>11:08:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>11:10:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>11:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>11:16:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>11:20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>11:21:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>11:23:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>11:28:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>11:30:10</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4719,6 +4719,28 @@
         </is>
       </c>
     </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>11:31:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D196"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4741,6 +4741,28 @@
         </is>
       </c>
     </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>11:38:25</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4763,6 +4763,94 @@
         </is>
       </c>
     </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>11:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>11:41:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>11:43:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>11:43:46</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:D213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4851,6 +4851,271 @@
         </is>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>12:48:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Added item barcode no: 6454</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>13:39:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no: 6454</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>13:40:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no: 6454</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>13:40:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>13:48:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>21:56:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>22:01:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>22:02:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>22:05:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no: 1003</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>22:07:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no: 1003</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>22:07:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>02/09/24</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>22:12:27</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D213"/>
+  <dimension ref="A1:D240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5116,6 +5116,600 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>20:38:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>20:41:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>20:42:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>20:42:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>20:44:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>20:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>20:53:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>20:54:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>20:55:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>20:56:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>20:57:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>20:58:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>20:58:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>21:00:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>21:06:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>21:08:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>22:44:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>22:45:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>23:10:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>23:12:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>23:13:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>23:16:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>23:19:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>23:24:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>23:26:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>23:31:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>03/19/24</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>23:33:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D240"/>
+  <dimension ref="A1:D298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5710,6 +5710,1282 @@
         </is>
       </c>
     </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>10:40:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>10:41:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>10:42:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>10:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>10:49:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>10:58:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>10:59:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>11:00:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>11:01:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>11:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>11:28:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>11:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>11:34:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>11:35:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>11:40:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>11:42:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>11:43:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>11:43:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>11:44:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>11:45:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>11:49:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>11:55:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>11:58:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>11:58:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>12:00:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>12:12:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>12:15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>12:16:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>12:19:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>12:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>12:20:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>12:21:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>12:21:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>12:24:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>12:26:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>12:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>12:27:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>LOG-OUT</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>12:27:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>12:38:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>12:40:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>13:05:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>13:07:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>13:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>13:41:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>13:45:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>14:05:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>14:06:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>14:06:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>14:12:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>14:14:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>14:14:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>14:15:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>14:17:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>14:18:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>14:27:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>14:46:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>14:46:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>14:47:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D298"/>
+  <dimension ref="A1:D321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6986,6 +6986,512 @@
         </is>
       </c>
     </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>15:28:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>15:39:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>15:40:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>15:41:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>15:42:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>15:45:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>15:50:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>15:54:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>15:55:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>16:13:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>16:15:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>16:16:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>16:25:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>16:42:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>16:54:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>16:57:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>17:14:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>17:35:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>17:36:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>17:42:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>17:48:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>17:48:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>17:49:35</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D321"/>
+  <dimension ref="A1:D322"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7492,6 +7492,28 @@
         </is>
       </c>
     </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>18:01:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D322"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7514,6 +7514,468 @@
         </is>
       </c>
     </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>20:56:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>21:03:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>21:05:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>21:31:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>21:34:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>21:43:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>21:50:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>21:53:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>21:54:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>21:59:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>22:02:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>22:10:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>22:24:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>22:25:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>22:28:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>22:30:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>22:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>22:33:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>22:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>22:49:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>04/08/24</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>22:50:28</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7976,6 +7976,226 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>09:47:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>09:53:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>10:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>10:43:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>10:48:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>10:48:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>10:52:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>22:19:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>22:22:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>22:23:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D343"/>
+  <dimension ref="A1:D358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7976,6 +7976,336 @@
         </is>
       </c>
     </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>09:43:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>09:45:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>09:45:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>04/09/24</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>09:48:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>20:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>04/14/24</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>20:18:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>09:58:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>10:31:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>aum</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>10:31:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>04/15/24</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>10:55:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>19:32:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>22:10:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>22:11:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>22:16:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>22:18:40</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D353"/>
+  <dimension ref="A1:D386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8196,6 +8196,732 @@
         </is>
       </c>
     </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>14:58:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>14:59:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>15:04:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>16:11:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>16:11:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>16:11:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>16:12:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>16:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>05/13/24</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>16:14:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>14:17:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>14:18:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>14:35:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>14:36:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>14:43:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>14:51:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>15:43:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>15:49:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>21:29:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>21:33:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>21:41:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>21:46:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>21:47:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>21:51:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>21:54:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>21:55:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>22:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>22:00:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>22:07:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>22:08:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>22:08:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>22:24:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>22:24:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>22:25:22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D386"/>
+  <dimension ref="A1:D396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8922,6 +8922,226 @@
         </is>
       </c>
     </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>22:35:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>22:35:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>22:36:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>22:37:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>22:37:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>22:37:44</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>22:38:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>22:44:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>22:44:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>22:47:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D396"/>
+  <dimension ref="A1:D422"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9142,6 +9142,578 @@
         </is>
       </c>
     </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>22:49:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>22:49:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>22:49:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>22:50:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>22:53:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>22:55:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>22:56:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>22:57:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>22:57:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>22:58:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>22:59:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>23:02:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>23:06:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>23:09:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>23:10:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>23:12:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>23:21:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>23:21:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>23:25:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>23:25:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>23:26:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>23:34:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>23:39:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>23:41:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>05/14/24</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>23:42:14</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>05/15/24</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>00:44:03</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/databases/activity_log.xlsx
+++ b/databases/activity_log.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D463"/>
+  <dimension ref="A1:D491"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,7 +427,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7.199999999999999" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="38.4" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
+    <col width="51.6" bestFit="1" customWidth="1" style="2" min="2" max="2"/>
     <col width="12" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
     <col width="12" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
   </cols>
@@ -3867,6 +3867,624 @@
         </is>
       </c>
     </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>07/21/24</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>21:37:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>20:30:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>20:43:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>20:57:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>21:39:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Added item barcode no: 733039</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>21:40:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>21:44:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>21:45:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>21:48:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Added item barcode no: 533426</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>21:50:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>21:53:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>22:00:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>22:10:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>22:15:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>22:24:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>22:27:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>22:28:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>22:28:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>22:29:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>22:33:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>22:34:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>22:37:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>Item checked in from Court barcode no: 30</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>22:42:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>23:05:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>23:06:46</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>LOG-IN</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>23:08:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>Item checked out to FSL barcode no: 30</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>23:08:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>Item checked in from FSL barcode no: 30</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>08/01/24</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>23:10:38</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
